--- a/docs/odh/shr-core-Device-model.xlsx
+++ b/docs/odh/shr-core-Device-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="116">
   <si>
     <t>Path</t>
   </si>
@@ -145,7 +145,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -162,10 +162,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Device-model.implicitRules</t>
   </si>
   <si>
@@ -179,13 +175,25 @@
     <t>shr-core-Device-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>A human-readable narrative, potentially including images, that contains a summary of the resource, and may be used to represent the content of the resource to a human.</t>
   </si>
   <si>
+    <t>shr-core-Device-model.statusReason</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the procedure.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-status-reason</t>
+  </si>
+  <si>
     <t>shr-core-Device-model.status</t>
   </si>
   <si>
@@ -195,7 +203,7 @@
     <t>shr-core-Device-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -205,11 +213,79 @@
     <t>shr-core-Device-model.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device-model]]}
 </t>
   </si>
   <si>
     <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.udiCarrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-UdiCarrier-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Structure of the Unique Device Identifier (UDI) Barcode string number for a device, assigned by the organization using the device.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.distinctIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The distinct identification string as required by regulation for a human cell, tissue, or cellular and tissue-based product.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.manufacturerName</t>
+  </si>
+  <si>
+    <t>The name of the company who produced the item.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.manufactureDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the item (medication, device, etc.) was produced.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.expirationDate</t>
+  </si>
+  <si>
+    <t>When the item (medication, device, etc.) will expire.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.lotNumber</t>
+  </si>
+  <si>
+    <t>A distinctive alpha-numeric identification code assigned by the manufacturer or distributor to a specific quantity of manufactured material or product within a batch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1115660
+</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.serialNumber</t>
+  </si>
+  <si>
+    <t>Serial number assigned by the manufacturer.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.deviceDesignation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DeviceDesignation-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A name of the device as given by the manufacturer, along with a type of name.</t>
   </si>
   <si>
     <t>shr-core-Device-model.type</t>
@@ -228,58 +304,86 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Device-model.deviceUdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>shr-core-Device-model.modelNumber</t>
+  </si>
+  <si>
+    <t>The model number of the device, assigned by the manufacturer or vendor.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.versionString</t>
+  </si>
+  <si>
+    <t>A string associated with the product that identifies a particular release iteration.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model]]}
 </t>
   </si>
   <si>
-    <t>Unique Device Identifier (UDI) Barcode string number for a device, assigned by the organization using the device.</t>
-  </si>
-  <si>
-    <t>shr-core-Device-model.vendorModelNumber</t>
-  </si>
-  <si>
-    <t>The model number of the device, assigned by the manufacturer or vendor.</t>
-  </si>
-  <si>
-    <t>shr-core-Device-model.manufacturerName</t>
-  </si>
-  <si>
-    <t>The name of the company who produced the item.</t>
-  </si>
-  <si>
-    <t>shr-core-Device-model.manufactureDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.</t>
+  </si>
+  <si>
+    <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.
+SHR follows Argonaut and makes the value set binding on marital status required. MaritalStatus has a required binding in Argonaut, but an extensible binding in US-Core. To be feasible under both DSTU2 Argonaut and STU3 US-Core, the required binding strength is adopted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1299487
 </t>
   </si>
   <si>
-    <t>When the item (medication, device, etc.) was produced.</t>
-  </si>
-  <si>
-    <t>shr-core-Device-model.expirationDate</t>
-  </si>
-  <si>
-    <t>When the item (medication, device, etc.) will expire.</t>
-  </si>
-  <si>
-    <t>shr-core-Device-model.versionString</t>
-  </si>
-  <si>
-    <t>A string associated with the product that identifies a particular release iteration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0333052
+    <t>shr-core-Device-model.owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
 </t>
   </si>
   <si>
+    <t>An organization that is responsible for the provision and ongoing maintenance of the device.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.contactPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactPoint-model]]}
+</t>
+  </si>
+  <si>
+    <t>An electronic means of contacting an organization or individual.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location-model]]}
+</t>
+  </si>
+  <si>
+    <t>Services and space and equipment provided for a particular purpose; a building or place that provides a particular service or is used for a particular industry. Could be a clinical site, community site, or a mobile facility.</t>
+  </si>
+  <si>
     <t>shr-core-Device-model.url</t>
   </si>
   <si>
     <t>A unique URL on which the device may be contacted directly.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.annotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Annotation-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An added or follow-up note, often after the fact, that contains metadata about who made the statement and when.</t>
+  </si>
+  <si>
+    <t>shr-core-Device-model.safety</t>
+  </si>
+  <si>
+    <t>Provides additional safety characteristics about a medical device, for example, 'contains latex'.</t>
   </si>
 </sst>
 </file>
@@ -428,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -437,7 +541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.46484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.6171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -461,13 +565,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="37.21484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.5703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.46484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="39.6171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -840,7 +944,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -872,7 +976,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -895,13 +999,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -952,7 +1056,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -969,7 +1073,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -992,13 +1096,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1049,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1066,7 +1170,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1077,7 +1181,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>36</v>
@@ -1092,10 +1196,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1122,13 +1226,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1146,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>36</v>
@@ -1163,7 +1265,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1174,7 +1276,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>36</v>
@@ -1186,7 +1288,7 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>58</v>
@@ -1243,13 +1345,13 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>36</v>
@@ -1271,7 +1373,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1346,7 +1448,7 @@
         <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>36</v>
@@ -1365,7 +1467,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>41</v>
@@ -1380,13 +1482,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1413,14 +1515,16 @@
         <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="X10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y10" t="s" s="2">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1438,7 +1542,7 @@
         <v>62</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>41</v>
@@ -1452,7 +1556,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1460,10 +1564,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>36</v>
@@ -1475,13 +1579,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1532,13 +1636,13 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>36</v>
@@ -1549,7 +1653,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1572,13 +1676,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1629,7 +1733,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1646,7 +1750,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1669,13 +1773,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1726,7 +1830,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1743,7 +1847,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1766,13 +1870,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1823,7 +1927,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -1840,7 +1944,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1863,13 +1967,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1920,7 +2024,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -1937,7 +2041,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -1960,13 +2064,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2002,7 +2106,7 @@
         <v>36</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2017,7 +2121,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2034,7 +2138,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2057,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2114,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2126,11 +2230,1076 @@
         <v>36</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI17">
+  <autoFilter ref="A1:AI28">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2140,7 +3309,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
